--- a/database/Soffer_Bound/expdata/1000.xlsx
+++ b/database/Soffer_Bound/expdata/1000.xlsx
@@ -429,7 +429,7 @@
         <v>19.36939473007146</v>
       </c>
       <c r="D2">
-        <v>0.5249398494806573</v>
+        <v>1.049879698961315</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -449,7 +449,7 @@
         <v>4.757373822605762</v>
       </c>
       <c r="D3">
-        <v>0.1529723848980006</v>
+        <v>0.3059447697960012</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>3.419149759522936</v>
       </c>
       <c r="D4">
-        <v>0.0917851499372828</v>
+        <v>0.1835702998745656</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>2.80547548360319</v>
       </c>
       <c r="D5">
-        <v>0.05927285639313367</v>
+        <v>0.1185457127862673</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>2.365617196291484</v>
       </c>
       <c r="D6">
-        <v>0.04447280148866189</v>
+        <v>0.08894560297732379</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>1.982983524047041</v>
       </c>
       <c r="D7">
-        <v>0.03915654657996133</v>
+        <v>0.07831309315992266</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>1.6343969889443</v>
       </c>
       <c r="D8">
-        <v>0.03632665408876961</v>
+        <v>0.07265330817753922</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>1.318070842217865</v>
       </c>
       <c r="D9">
-        <v>0.03342203973083114</v>
+        <v>0.06684407946166228</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>1.036439358786201</v>
       </c>
       <c r="D10">
-        <v>0.02976510310965618</v>
+        <v>0.05953020621931236</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0.7913166603998163</v>
       </c>
       <c r="D11">
-        <v>0.02495157981506463</v>
+        <v>0.04990315963012926</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0.5835888707767096</v>
       </c>
       <c r="D12">
-        <v>0.01879127082592624</v>
+        <v>0.03758254165185247</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0.4131726935113211</v>
       </c>
       <c r="D13">
-        <v>0.012783171401156</v>
+        <v>0.025566342802312</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0.2784558276202577</v>
       </c>
       <c r="D14">
-        <v>0.008194158075419747</v>
+        <v>0.01638831615083949</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0.1764191887218533</v>
       </c>
       <c r="D15">
-        <v>0.005194272299046701</v>
+        <v>0.0103885445980934</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0.1030887370608803</v>
       </c>
       <c r="D16">
-        <v>0.00350914663700633</v>
+        <v>0.007018293274012659</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0.05382965884178669</v>
       </c>
       <c r="D17">
-        <v>0.002547969529350668</v>
+        <v>0.005095939058701335</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0.02370462800900856</v>
       </c>
       <c r="D18">
-        <v>0.00182191217523705</v>
+        <v>0.003643824350474099</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0.007726070022083316</v>
       </c>
       <c r="D19">
-        <v>0.001136363468813009</v>
+        <v>0.002272726937626018</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0.001290297339528924</v>
       </c>
       <c r="D20">
-        <v>0.0004809367459050239</v>
+        <v>0.0009618734918100479</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>-2.424558451456156E-05</v>
       </c>
       <c r="D21">
-        <v>2.865673379154243E-05</v>
+        <v>5.731346758308485E-05</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>23.55246213676048</v>
       </c>
       <c r="D22">
-        <v>0.6268671771033627</v>
+        <v>1.253734354206725</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>5.409995698456997</v>
       </c>
       <c r="D23">
-        <v>0.1368330805175712</v>
+        <v>0.2736661610351424</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>3.621777617736981</v>
       </c>
       <c r="D24">
-        <v>0.07521196147448544</v>
+        <v>0.1504239229489709</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>2.777188100199609</v>
       </c>
       <c r="D25">
-        <v>0.04718086450484653</v>
+        <v>0.09436172900969306</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>2.197236587131001</v>
       </c>
       <c r="D26">
-        <v>0.03691264631266669</v>
+        <v>0.07382529262533338</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>1.737249702164425</v>
       </c>
       <c r="D27">
-        <v>0.03258001889502044</v>
+        <v>0.06516003779004087</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>1.356445654482201</v>
       </c>
       <c r="D28">
-        <v>0.0290551361791119</v>
+        <v>0.0581102723582238</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>1.039548163138617</v>
       </c>
       <c r="D29">
-        <v>0.0251371771609071</v>
+        <v>0.05027435432181421</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0.7783071274793821</v>
       </c>
       <c r="D30">
-        <v>0.02073737285325212</v>
+        <v>0.04147474570650424</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0.5664426514096415</v>
       </c>
       <c r="D31">
-        <v>0.01587243116216146</v>
+        <v>0.03174486232432292</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0.3984402126962884</v>
       </c>
       <c r="D32">
-        <v>0.01101097183405422</v>
+        <v>0.02202194366810843</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0.2689574993728293</v>
       </c>
       <c r="D33">
-        <v>0.007057539245513159</v>
+        <v>0.01411507849102632</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0.1725826231596435</v>
       </c>
       <c r="D34">
-        <v>0.004381945458912067</v>
+        <v>0.008763890917824134</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0.1037970620891358</v>
       </c>
       <c r="D35">
-        <v>0.002787113636856616</v>
+        <v>0.005574227273713232</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0.0572800188918961</v>
       </c>
       <c r="D36">
-        <v>0.001902758821052025</v>
+        <v>0.00380551764210405</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0.02799051798217095</v>
       </c>
       <c r="D37">
-        <v>0.001331513609981525</v>
+        <v>0.002663027219963051</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0.01136395982017627</v>
       </c>
       <c r="D38">
-        <v>0.0008721435716393893</v>
+        <v>0.001744287143278779</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0.003315595690993102</v>
       </c>
       <c r="D39">
-        <v>0.0004739474172397861</v>
+        <v>0.0009478948344795722</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0.0004648656150174583</v>
       </c>
       <c r="D40">
-        <v>0.0001627094431863996</v>
+        <v>0.0003254188863727992</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>-3.182515221739645E-06</v>
       </c>
       <c r="D41">
-        <v>1.252257894175712E-05</v>
+        <v>2.504515788351423E-05</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>25.39957518133951</v>
       </c>
       <c r="D42">
-        <v>0.6490490007077634</v>
+        <v>1.298098001415527</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>5.577805653955074</v>
       </c>
       <c r="D43">
-        <v>0.1336447042949638</v>
+        <v>0.2672894085899277</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>3.647167790076749</v>
       </c>
       <c r="D44">
-        <v>0.07201077056361951</v>
+        <v>0.144021541127239</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>2.740920746448322</v>
       </c>
       <c r="D45">
-        <v>0.04515193152421587</v>
+        <v>0.09030386304843174</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.129287195891925</v>
       </c>
       <c r="D46">
-        <v>0.03558770579416989</v>
+        <v>0.07117541158833979</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>1.655645701035948</v>
       </c>
       <c r="D47">
-        <v>0.03123251968478431</v>
+        <v>0.06246503936956862</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>1.272792551153827</v>
       </c>
       <c r="D48">
-        <v>0.02747934812065229</v>
+        <v>0.05495869624130459</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0.9611189830212188</v>
       </c>
       <c r="D49">
-        <v>0.02338069611587861</v>
+        <v>0.04676139223175722</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0.709312116173873</v>
       </c>
       <c r="D50">
-        <v>0.01892158356173941</v>
+        <v>0.03784316712347882</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0.5089189685329496</v>
       </c>
       <c r="D51">
-        <v>0.0141851619126472</v>
+        <v>0.02837032382529441</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0.3528668733594748</v>
       </c>
       <c r="D52">
-        <v>0.009666693480468854</v>
+        <v>0.01933338696093771</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0.2347057317400073</v>
       </c>
       <c r="D53">
-        <v>0.00612206314619359</v>
+        <v>0.01224412629238718</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0.1482888902057452</v>
       </c>
       <c r="D54">
-        <v>0.003781538962434842</v>
+        <v>0.007563077924869683</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0.08771483503530214</v>
       </c>
       <c r="D55">
-        <v>0.002410255919988601</v>
+        <v>0.004820511839977203</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0.04752315619457928</v>
       </c>
       <c r="D56">
-        <v>0.001643765658821981</v>
+        <v>0.003287531317643963</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0.02273693402600103</v>
       </c>
       <c r="D57">
-        <v>0.001136019552396168</v>
+        <v>0.002272039104792335</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0.008998380465963404</v>
       </c>
       <c r="D58">
-        <v>0.0007272953602438473</v>
+        <v>0.001454590720487695</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0.002538880738674294</v>
       </c>
       <c r="D59">
-        <v>0.0003820334068812672</v>
+        <v>0.0007640668137625343</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0.0003382625721139796</v>
       </c>
       <c r="D60">
-        <v>0.0001247132585593349</v>
+        <v>0.0002494265171186697</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>-1.412502774639129E-06</v>
       </c>
       <c r="D61">
-        <v>8.584663665420769E-06</v>
+        <v>1.716932733084154E-05</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>26.50488089273647</v>
       </c>
       <c r="D62">
-        <v>0.6604883645535072</v>
+        <v>1.320976729107014</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>5.664155953276943</v>
       </c>
       <c r="D63">
-        <v>0.1319311996637408</v>
+        <v>0.2638623993274816</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>3.655283581048534</v>
       </c>
       <c r="D64">
-        <v>0.07031525322744241</v>
+        <v>0.1406305064548848</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>2.716676781489967</v>
       </c>
       <c r="D65">
-        <v>0.04411791322235201</v>
+        <v>0.08823582644470401</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>2.08934804118583</v>
       </c>
       <c r="D66">
-        <v>0.034888506666371</v>
+        <v>0.069777013332742</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>1.609713707515239</v>
       </c>
       <c r="D67">
-        <v>0.03049365516448136</v>
+        <v>0.06098731032896272</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>1.226905790893929</v>
       </c>
       <c r="D68">
-        <v>0.02661562305328325</v>
+        <v>0.05323124610656651</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0.9189123066917673</v>
       </c>
       <c r="D69">
-        <v>0.02243129074487513</v>
+        <v>0.04486258148975026</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0.6727701632586436</v>
       </c>
       <c r="D70">
-        <v>0.0179586734499048</v>
+        <v>0.03591734689980959</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0.4788865613379593</v>
       </c>
       <c r="D71">
-        <v>0.01331076376369841</v>
+        <v>0.02662152752739682</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0.3293930531238782</v>
       </c>
       <c r="D72">
-        <v>0.008983902479814331</v>
+        <v>0.01796780495962866</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0.2172943515136287</v>
       </c>
       <c r="D73">
-        <v>0.005653655717097648</v>
+        <v>0.0113073114341953</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>0.1361035782438761</v>
       </c>
       <c r="D74">
-        <v>0.003483599625606095</v>
+        <v>0.006967199251212189</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0.07976017708554482</v>
       </c>
       <c r="D75">
-        <v>0.002222964561650057</v>
+        <v>0.004445929123300114</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0.04276967752527719</v>
       </c>
       <c r="D76">
-        <v>0.001514188432520463</v>
+        <v>0.003028376865040927</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0.02022094015122837</v>
       </c>
       <c r="D77">
-        <v>0.001038684775832848</v>
+        <v>0.002077369551665695</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0.007888451586595426</v>
       </c>
       <c r="D78">
-        <v>0.0006563808126486268</v>
+        <v>0.001312761625297254</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0.002184024492334123</v>
       </c>
       <c r="D79">
-        <v>0.0003382731412579773</v>
+        <v>0.0006765462825159546</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0.000282697625692652</v>
       </c>
       <c r="D80">
-        <v>0.0001073503241953713</v>
+        <v>0.0002147006483907427</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>-7.704886268724127E-07</v>
       </c>
       <c r="D81">
-        <v>6.92505886429316E-06</v>
+        <v>1.385011772858632E-05</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>27.24732505941555</v>
       </c>
       <c r="D82">
-        <v>0.6678833616141153</v>
+        <v>1.335766723228231</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>5.717861270733092</v>
       </c>
       <c r="D83">
-        <v>0.1307859735703818</v>
+        <v>0.2615719471407635</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>3.657733414491289</v>
       </c>
       <c r="D84">
-        <v>0.06919490286478157</v>
+        <v>0.1383898057295631</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>2.698311722666312</v>
       </c>
       <c r="D85">
-        <v>0.04344868811769342</v>
+        <v>0.08689737623538683</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>2.061249302021459</v>
       </c>
       <c r="D86">
-        <v>0.03442465463855614</v>
+        <v>0.06884930927711227</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>1.578258224911867</v>
       </c>
       <c r="D87">
-        <v>0.02999376104826476</v>
+        <v>0.05998752209652953</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>1.195987696427935</v>
       </c>
       <c r="D88">
-        <v>0.02603282067628949</v>
+        <v>0.05206564135257898</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0.8908164743479934</v>
       </c>
       <c r="D89">
-        <v>0.02179662675394001</v>
+        <v>0.04359325350788003</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0.6486911062247082</v>
       </c>
       <c r="D90">
-        <v>0.01732256969184613</v>
+        <v>0.03464513938369226</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0.4592775742535896</v>
       </c>
       <c r="D91">
-        <v>0.01274099832101233</v>
+        <v>0.02548199664202466</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0.3141986979329803</v>
       </c>
       <c r="D92">
-        <v>0.00854420059900605</v>
+        <v>0.0170884011980121</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0.2061196348392615</v>
       </c>
       <c r="D93">
-        <v>0.005354521090028587</v>
+        <v>0.01070904218005717</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0.1283502301069871</v>
       </c>
       <c r="D94">
-        <v>0.003294277355820124</v>
+        <v>0.006588554711640248</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0.07474442260557523</v>
       </c>
       <c r="D95">
-        <v>0.002103787992365501</v>
+        <v>0.004207575984731002</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>0.03980166661447947</v>
       </c>
       <c r="D96">
-        <v>0.001431444412422262</v>
+        <v>0.002862888824844524</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0.01866731914088345</v>
       </c>
       <c r="D97">
-        <v>0.0009767497691467392</v>
+        <v>0.001953499538293478</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0.007212023321180724</v>
       </c>
       <c r="D98">
-        <v>0.0006117301429886774</v>
+        <v>0.001223460285977355</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0.001971400425155117</v>
       </c>
       <c r="D99">
-        <v>0.0003111830495586237</v>
+        <v>0.0006223660991172475</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0.0002502299534590657</v>
       </c>
       <c r="D100">
-        <v>9.686578021167013E-05</v>
+        <v>0.0001937315604233403</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>-4.522684545114E-07</v>
       </c>
       <c r="D101">
-        <v>5.970033995373933E-06</v>
+        <v>1.194006799074787E-05</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>27.77895283513247</v>
       </c>
       <c r="D102">
-        <v>0.6732583923816257</v>
+        <v>1.346516784763251</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>5.753846509596894</v>
       </c>
       <c r="D103">
-        <v>0.1299542842782484</v>
+        <v>0.2599085685564969</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>3.657414400351085</v>
       </c>
       <c r="D104">
-        <v>0.06838847773136214</v>
+        <v>0.1367769554627243</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>2.683399175741078</v>
       </c>
       <c r="D105">
-        <v>0.04297315928592391</v>
+        <v>0.08594631857184783</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>2.039725003436325</v>
       </c>
       <c r="D106">
-        <v>0.03408849451127111</v>
+        <v>0.06817698902254223</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>1.554693245732956</v>
       </c>
       <c r="D107">
-        <v>0.02962682308362568</v>
+        <v>0.05925364616725137</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>1.173135525321286</v>
       </c>
       <c r="D108">
-        <v>0.02560619544257115</v>
+        <v>0.0512123908851423</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0.8702580050671814</v>
       </c>
       <c r="D109">
-        <v>0.02133529194918783</v>
+        <v>0.04267058389837566</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0.6312193817968192</v>
       </c>
       <c r="D110">
-        <v>0.01686414466925401</v>
+        <v>0.03372828933850802</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0.4451570657600616</v>
       </c>
       <c r="D111">
-        <v>0.01233433519830609</v>
+        <v>0.02466867039661217</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0.3033356119468182</v>
       </c>
       <c r="D112">
-        <v>0.00823294968149456</v>
+        <v>0.01646589936298912</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0.198186940281048</v>
       </c>
       <c r="D113">
-        <v>0.005143990964164085</v>
+        <v>0.01028798192832817</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0.1228861698916431</v>
       </c>
       <c r="D114">
-        <v>0.003161474976950209</v>
+        <v>0.006322949953900418</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0.07123683762776582</v>
       </c>
       <c r="D115">
-        <v>0.002020091576879999</v>
+        <v>0.004040183153759998</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>0.0377435195439738</v>
       </c>
       <c r="D116">
-        <v>0.00137320360383194</v>
+        <v>0.002746407207663881</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0.01760030497917782</v>
       </c>
       <c r="D117">
-        <v>0.0009332839703840468</v>
+        <v>0.001866567940768094</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0.006752768780097954</v>
       </c>
       <c r="D118">
-        <v>0.0005806358346575457</v>
+        <v>0.001161271669315091</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0.001829178699933372</v>
       </c>
       <c r="D119">
-        <v>0.0002925453377187014</v>
+        <v>0.0005850906754374029</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0.0002289867265024359</v>
       </c>
       <c r="D120">
-        <v>8.977890411949578E-05</v>
+        <v>0.0001795578082389916</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>-2.817361784462876E-07</v>
       </c>
       <c r="D121">
-        <v>5.346903417361001E-06</v>
+        <v>1.0693806834722E-05</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2829,7 +2829,7 @@
         <v>28.240955628481</v>
       </c>
       <c r="D122">
-        <v>0.6774118701469768</v>
+        <v>1.354823740293954</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>5.7833509074514</v>
       </c>
       <c r="D123">
-        <v>0.129300028265617</v>
+        <v>0.2586000565312341</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>3.657038428862294</v>
       </c>
       <c r="D124">
-        <v>0.06775875140954947</v>
+        <v>0.1355175028190989</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>2.67134072650027</v>
       </c>
       <c r="D125">
-        <v>0.04260529370597103</v>
+        <v>0.08521058741194205</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>2.022490725093033</v>
       </c>
       <c r="D126">
-        <v>0.03382445189744969</v>
+        <v>0.06764890379489938</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>1.535936559967544</v>
       </c>
       <c r="D127">
-        <v>0.02933622402929573</v>
+        <v>0.05867244805859147</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>1.15502663688458</v>
       </c>
       <c r="D128">
-        <v>0.02526926581356734</v>
+        <v>0.05053853162713468</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0.8540259682530414</v>
       </c>
       <c r="D129">
-        <v>0.02097290441761631</v>
+        <v>0.04194580883523263</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0.6174683493938803</v>
       </c>
       <c r="D130">
-        <v>0.01650641162642087</v>
+        <v>0.03301282325284173</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0.4340754076150468</v>
       </c>
       <c r="D131">
-        <v>0.01201929691048412</v>
+        <v>0.02403859382096824</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0.2948331161973484</v>
       </c>
       <c r="D132">
-        <v>0.007993303512511381</v>
+        <v>0.01598660702502276</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0.191993620015842</v>
       </c>
       <c r="D133">
-        <v>0.004982600898125899</v>
+        <v>0.009965201796251799</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0.1186308840748539</v>
       </c>
       <c r="D134">
-        <v>0.003059908741566384</v>
+        <v>0.006119817483132769</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0.0685120245252787</v>
       </c>
       <c r="D135">
-        <v>0.00195601592202287</v>
+        <v>0.00391203184404574</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>0.03614901173988874</v>
       </c>
       <c r="D136">
-        <v>0.001328547056747316</v>
+        <v>0.002657094113494633</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0.01677620387110892</v>
       </c>
       <c r="D137">
-        <v>0.0009000321563300642</v>
+        <v>0.001800064312660128</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0.006399431602032693</v>
       </c>
       <c r="D138">
-        <v>0.0005569873187452588</v>
+        <v>0.001113974637490518</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0.001720335304252138</v>
       </c>
       <c r="D139">
-        <v>0.0002785009624517509</v>
+        <v>0.0005570019249035019</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0.0002128757019556446</v>
       </c>
       <c r="D140">
-        <v>8.451071875466439E-05</v>
+        <v>0.0001690214375093288</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>-1.445813362348648E-07</v>
       </c>
       <c r="D141">
-        <v>4.896774522418175E-06</v>
+        <v>9.79354904483635E-06</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>28.65135906182599</v>
       </c>
       <c r="D142">
-        <v>0.6807550374646033</v>
+        <v>1.361510074929207</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>5.808519398190136</v>
       </c>
       <c r="D143">
-        <v>0.1287601526553378</v>
+        <v>0.2575203053106755</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>3.656708191573948</v>
       </c>
       <c r="D144">
-        <v>0.06724250819644932</v>
+        <v>0.1344850163928986</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>2.661257576089529</v>
       </c>
       <c r="D145">
-        <v>0.04230589383987374</v>
+        <v>0.08461178767974749</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>2.008161548301234</v>
       </c>
       <c r="D146">
-        <v>0.03360691633429248</v>
+        <v>0.06721383266858495</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>1.52040403352696</v>
       </c>
       <c r="D147">
-        <v>0.02909536788765206</v>
+        <v>0.05819073577530413</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>1.140077886913666</v>
       </c>
       <c r="D148">
-        <v>0.0249907023705679</v>
+        <v>0.04998140474113581</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>0.8406621438556066</v>
       </c>
       <c r="D149">
-        <v>0.02067461957572489</v>
+        <v>0.04134923915144977</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0.6061737001108405</v>
       </c>
       <c r="D150">
-        <v>0.01621349905529269</v>
+        <v>0.03242699811058537</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0.4249926364368897</v>
       </c>
       <c r="D151">
-        <v>0.01176282925608117</v>
+        <v>0.02352565851216235</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0.2878780931860542</v>
       </c>
       <c r="D152">
-        <v>0.007799167879946627</v>
+        <v>0.01559833575989325</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0.1869368564768804</v>
       </c>
       <c r="D153">
-        <v>0.004852311843149389</v>
+        <v>0.009704623686298777</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0.1151628534553743</v>
       </c>
       <c r="D154">
-        <v>0.002978065807461927</v>
+        <v>0.005956131614923854</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0.06629527515358438</v>
       </c>
       <c r="D155">
-        <v>0.001904337385138678</v>
+        <v>0.003808674770277355</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0.03485427578693827</v>
       </c>
       <c r="D156">
-        <v>0.001292488658314723</v>
+        <v>0.002584977316629446</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0.01610844157695162</v>
       </c>
       <c r="D157">
-        <v>0.0008732330667174813</v>
+        <v>0.001746466133434963</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>0.00611386314792784</v>
       </c>
       <c r="D158">
-        <v>0.0005380174988555529</v>
+        <v>0.001076034997711106</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0.001632671620481005</v>
       </c>
       <c r="D159">
-        <v>0.0002673180342396806</v>
+        <v>0.0005346360684793613</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0.0001999760645048732</v>
       </c>
       <c r="D160">
-        <v>8.03608160578531E-05</v>
+        <v>0.0001607216321157062</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>-2.885485166129521E-08</v>
       </c>
       <c r="D161">
-        <v>4.549769936316127E-06</v>
+        <v>9.099539872632255E-06</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>29.0071692631009</v>
       </c>
       <c r="D162">
-        <v>0.683529782926687</v>
+        <v>1.367059565853374</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>5.829625581531148</v>
       </c>
       <c r="D163">
-        <v>0.1283027811038261</v>
+        <v>0.2566055622076522</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>3.656132554854965</v>
       </c>
       <c r="D164">
-        <v>0.06680779257225088</v>
+        <v>0.1336155851445018</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>2.652491430231114</v>
       </c>
       <c r="D165">
-        <v>0.04205518856715988</v>
+        <v>0.08411037713431976</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>1.995889447386822</v>
       </c>
       <c r="D166">
-        <v>0.03342283457450026</v>
+        <v>0.06684566914900052</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>1.507192515363855</v>
       </c>
       <c r="D167">
-        <v>0.02889059349397741</v>
+        <v>0.05778118698795482</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1.127421300371304</v>
       </c>
       <c r="D168">
-        <v>0.02475440905163676</v>
+        <v>0.04950881810327352</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -3769,7 +3769,7 @@
         <v>0.8293883939893144</v>
       </c>
       <c r="D169">
-        <v>0.02042259097496648</v>
+        <v>0.04084518194993297</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>0.5966752538027211</v>
       </c>
       <c r="D170">
-        <v>0.01596711870904176</v>
+        <v>0.03193423741808352</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>0.4173761125693495</v>
       </c>
       <c r="D171">
-        <v>0.01154816033959951</v>
+        <v>0.02309632067919902</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>0.2820616331595107</v>
       </c>
       <c r="D172">
-        <v>0.007637348450666918</v>
+        <v>0.01527469690133384</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>0.1827191024361464</v>
       </c>
       <c r="D173">
-        <v>0.004744024067453318</v>
+        <v>0.009488048134906637</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0.1122779999119206</v>
       </c>
       <c r="D174">
-        <v>0.002910147930395168</v>
+        <v>0.005820295860790335</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>0.06445642845073168</v>
       </c>
       <c r="D175">
-        <v>0.001861418429347698</v>
+        <v>0.003722836858695397</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0.03378349245814548</v>
       </c>
       <c r="D176">
-        <v>0.001262514243992587</v>
+        <v>0.002525028487985174</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0.01555805232910896</v>
       </c>
       <c r="D177">
-        <v>0.000850994078848349</v>
+        <v>0.001701988157696698</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0.005879437709605355</v>
       </c>
       <c r="D178">
-        <v>0.0005223399223894625</v>
+        <v>0.001044679844778925</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>0.001561082946480869</v>
       </c>
       <c r="D179">
-        <v>0.0002581337324687394</v>
+        <v>0.0005162674649374789</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0.0001895251582677373</v>
       </c>
       <c r="D180">
-        <v>7.698339335426105E-05</v>
+        <v>0.0001539667867085221</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -4009,7 +4009,7 @@
         <v>6.157904684666066E-08</v>
       </c>
       <c r="D181">
-        <v>4.272238017555334E-06</v>
+        <v>8.544476035110668E-06</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>29.3121594523329</v>
       </c>
       <c r="D182">
-        <v>0.6858859382730025</v>
+        <v>1.371771876546005</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>5.847184246897016</v>
       </c>
       <c r="D183">
-        <v>0.127906787876972</v>
+        <v>0.255813575753944</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>3.655228749150158</v>
       </c>
       <c r="D184">
-        <v>0.06643335390175927</v>
+        <v>0.1328667078035185</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>2.644656352642937</v>
       </c>
       <c r="D185">
-        <v>0.04184025363645769</v>
+        <v>0.08368050727291537</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>1.985136705438698</v>
       </c>
       <c r="D186">
-        <v>0.03326357810792902</v>
+        <v>0.06652715621585804</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>1.495713767830499</v>
       </c>
       <c r="D187">
-        <v>0.02871278060948208</v>
+        <v>0.05742556121896417</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>1.116483727421027</v>
       </c>
       <c r="D188">
-        <v>0.02454963898988301</v>
+        <v>0.04909927797976602</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -4169,7 +4169,7 @@
         <v>0.8196861894339559</v>
       </c>
       <c r="D189">
-        <v>0.02020491234676659</v>
+        <v>0.04040982469353319</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0.5885300007236528</v>
       </c>
       <c r="D190">
-        <v>0.01575514252234155</v>
+        <v>0.0315102850446831</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>0.4108661187982221</v>
       </c>
       <c r="D191">
-        <v>0.01136423865044779</v>
+        <v>0.02272847730089558</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>0.2771058806879942</v>
       </c>
       <c r="D192">
-        <v>0.007499187765730104</v>
+        <v>0.01499837553146021</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>0.1791368452716419</v>
       </c>
       <c r="D193">
-        <v>0.004651792947007279</v>
+        <v>0.009303585894014558</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>0.1098357673410339</v>
       </c>
       <c r="D194">
-        <v>0.002852374511230757</v>
+        <v>0.005704749022461515</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0.06290510939280777</v>
       </c>
       <c r="D195">
-        <v>0.001824887079933122</v>
+        <v>0.003649774159866245</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>0.03288354690549186</v>
       </c>
       <c r="D196">
-        <v>0.001236981128275003</v>
+        <v>0.002473962256550006</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0.01509745647356356</v>
       </c>
       <c r="D197">
-        <v>0.0008320787497461015</v>
+        <v>0.001664157499492203</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>0.005684250965374065</v>
       </c>
       <c r="D198">
-        <v>0.0005090521056316953</v>
+        <v>0.001018104211263391</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0.001501864902132385</v>
       </c>
       <c r="D199">
-        <v>0.0002503904964322203</v>
+        <v>0.0005007809928644407</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0.0001809620105969487</v>
       </c>
       <c r="D200">
-        <v>7.415811214198502E-05</v>
+        <v>0.00014831622428397</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>1.281674492143687E-07</v>
       </c>
       <c r="D201">
-        <v>4.044191625447166E-06</v>
+        <v>8.088383250894332E-06</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>29.57371731936428</v>
       </c>
       <c r="D202">
-        <v>0.6879229871153312</v>
+        <v>1.375845974230662</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>5.861816916782715</v>
       </c>
       <c r="D203">
-        <v>0.1275582275378883</v>
+        <v>0.2551164550757765</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>3.654030246459469</v>
       </c>
       <c r="D204">
-        <v>0.0661052767525392</v>
+        <v>0.1322105535050784</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -4489,7 +4489,7 @@
         <v>2.637531847587765</v>
       </c>
       <c r="D205">
-        <v>0.04165266165618941</v>
+        <v>0.08330532331237882</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>1.975558715422542</v>
       </c>
       <c r="D206">
-        <v>0.03312347260774409</v>
+        <v>0.06624694521548818</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>1.485577244177648</v>
       </c>
       <c r="D207">
-        <v>0.02855587623123504</v>
+        <v>0.05711175246247008</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>1.106877853678251</v>
       </c>
       <c r="D208">
-        <v>0.02436927880051473</v>
+        <v>0.04873855760102946</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -4569,7 +4569,7 @@
         <v>0.8112010518806689</v>
       </c>
       <c r="D209">
-        <v>0.02001374005735583</v>
+        <v>0.04002748011471165</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -4589,7 +4589,7 @@
         <v>0.5814322689296324</v>
       </c>
       <c r="D210">
-        <v>0.01556960606265875</v>
+        <v>0.03113921212531751</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>0.4052123793067484</v>
       </c>
       <c r="D211">
-        <v>0.0112038403256704</v>
+        <v>0.02240768065134079</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -4629,7 +4629,7 @@
         <v>0.2728159505325057</v>
       </c>
       <c r="D212">
-        <v>0.007379057940064069</v>
+        <v>0.01475811588012814</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0.1760461048221959</v>
       </c>
       <c r="D213">
-        <v>0.004571766713316707</v>
+        <v>0.009143533426633415</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>0.107735830285032</v>
       </c>
       <c r="D214">
-        <v>0.002802300682768515</v>
+        <v>0.005604601365537029</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>0.06157615247568356</v>
       </c>
       <c r="D215">
-        <v>0.00179320713918587</v>
+        <v>0.00358641427837174</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0.03211572392309762</v>
       </c>
       <c r="D216">
-        <v>0.001214824632684178</v>
+        <v>0.002429649265368355</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0.01470630717142618</v>
       </c>
       <c r="D217">
-        <v>0.0008156867788751848</v>
+        <v>0.00163137355775037</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>0.005519406885010803</v>
       </c>
       <c r="D218">
-        <v>0.0004975718828756496</v>
+        <v>0.0009951437657512992</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>0.001452208247048156</v>
       </c>
       <c r="D219">
-        <v>0.0002437312606499782</v>
+        <v>0.0004874625212999565</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0.0001738554202944987</v>
       </c>
       <c r="D220">
-        <v>7.174493164139299E-05</v>
+        <v>0.000143489863282786</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>1.749590685754852E-07</v>
       </c>
       <c r="D221">
-        <v>3.852699136762625E-06</v>
+        <v>7.70539827352525E-06</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -4829,7 +4829,7 @@
         <v>29.80087365836913</v>
       </c>
       <c r="D222">
-        <v>0.6897097138906078</v>
+        <v>1.379419427781216</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>5.874178085152981</v>
       </c>
       <c r="D223">
-        <v>0.127247507649383</v>
+        <v>0.254495015298766</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -4869,7 +4869,7 @@
         <v>3.652633265214171</v>
       </c>
       <c r="D224">
-        <v>0.06581408041312195</v>
+        <v>0.1316281608262439</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>2.630997149028024</v>
       </c>
       <c r="D225">
-        <v>0.04148668432676511</v>
+        <v>0.08297336865353022</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>1.966930476214745</v>
       </c>
       <c r="D226">
-        <v>0.032998627129282</v>
+        <v>0.06599725425856399</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>1.476516154650352</v>
       </c>
       <c r="D227">
-        <v>0.02841570493781686</v>
+        <v>0.05683140987563372</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>1.098333365062491</v>
       </c>
       <c r="D228">
-        <v>0.02420843866362326</v>
+        <v>0.04841687732724652</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>0.8036821872430603</v>
       </c>
       <c r="D229">
-        <v>0.01984371060863947</v>
+        <v>0.03968742121727895</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0.5751634901050566</v>
       </c>
       <c r="D230">
-        <v>0.01540508323360508</v>
+        <v>0.03081016646721015</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>0.400234256527163</v>
       </c>
       <c r="D231">
-        <v>0.01106206647937099</v>
+        <v>0.02212413295874198</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>0.2690499352597887</v>
       </c>
       <c r="D232">
-        <v>0.007273162184609338</v>
+        <v>0.01454632436921868</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0.1733410713698086</v>
       </c>
       <c r="D233">
-        <v>0.004501354392267875</v>
+        <v>0.00900270878453575</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>0.10590377195883</v>
       </c>
       <c r="D234">
-        <v>0.002758284515631054</v>
+        <v>0.005516569031262108</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0.06042071685051406</v>
       </c>
       <c r="D235">
-        <v>0.001765345327578735</v>
+        <v>0.00353069065515747</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0.03145069017508537</v>
       </c>
       <c r="D236">
-        <v>0.001195328226446394</v>
+        <v>0.002390656452892788</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0.01436900383664095</v>
       </c>
       <c r="D237">
-        <v>0.0008012805033869069</v>
+        <v>0.001602561006773814</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -5149,7 +5149,7 @@
         <v>0.00537799853901803</v>
       </c>
       <c r="D238">
-        <v>0.0004875096930662523</v>
+        <v>0.0009750193861325046</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>0.001409900757859663</v>
       </c>
       <c r="D239">
-        <v>0.0002379187635423001</v>
+        <v>0.0004758375270846002</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0.0001678610035629625</v>
       </c>
       <c r="D240">
-        <v>6.965144247694712E-05</v>
+        <v>0.0001393028849538942</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>2.071857866885109E-07</v>
       </c>
       <c r="D241">
-        <v>3.688977948387636E-06</v>
+        <v>7.377955896775271E-06</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>30.00207300316318</v>
       </c>
       <c r="D242">
-        <v>0.6912958232953613</v>
+        <v>1.382591646590723</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>5.884851161573209</v>
       </c>
       <c r="D243">
-        <v>0.1269676042990242</v>
+        <v>0.2539352085980485</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>3.651142470436362</v>
       </c>
       <c r="D244">
-        <v>0.06555282075131751</v>
+        <v>0.131105641502635</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>2.624979239353951</v>
       </c>
       <c r="D245">
-        <v>0.04133817044531538</v>
+        <v>0.08267634089063075</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -5309,7 +5309,7 @@
         <v>1.959094413926773</v>
       </c>
       <c r="D246">
-        <v>0.03288619665739801</v>
+        <v>0.06577239331479602</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>1.468337870403169</v>
       </c>
       <c r="D247">
-        <v>0.02828919974459322</v>
+        <v>0.05657839948918644</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>1.090652430749494</v>
       </c>
       <c r="D248">
-        <v>0.0240635215654564</v>
+        <v>0.0481270431309128</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>0.796944521138325</v>
       </c>
       <c r="D249">
-        <v>0.01969088358525027</v>
+        <v>0.03938176717050054</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>0.5695613970963019</v>
       </c>
       <c r="D250">
-        <v>0.01525760452455075</v>
+        <v>0.0305152090491015</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -5409,7 +5409,7 @@
         <v>0.395796934958316</v>
       </c>
       <c r="D251">
-        <v>0.01093534722709064</v>
+        <v>0.02187069445418129</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0.2657014118085474</v>
       </c>
       <c r="D252">
-        <v>0.007178740649646082</v>
+        <v>0.01435748129929216</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0.1709420065176862</v>
       </c>
       <c r="D253">
-        <v>0.004438676623659228</v>
+        <v>0.008877353247318457</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>0.1042832338330819</v>
       </c>
       <c r="D254">
-        <v>0.002719136313183528</v>
+        <v>0.005438272626367056</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>0.05940161384075638</v>
       </c>
       <c r="D255">
-        <v>0.001740552846021566</v>
+        <v>0.003481105692043132</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -5509,7 +5509,7 @@
         <v>0.03086598478601833</v>
       </c>
       <c r="D256">
-        <v>0.001177971886565909</v>
+        <v>0.002355943773131817</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0.01407352790963362</v>
       </c>
       <c r="D257">
-        <v>0.0007884699836676497</v>
+        <v>0.001576939967335299</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -5549,7 +5549,7 @@
         <v>0.005254670089920801</v>
       </c>
       <c r="D258">
-        <v>0.0004785840348593669</v>
+        <v>0.0009571680697187338</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0.001373214517059841</v>
       </c>
       <c r="D259">
-        <v>0.0002327822222293586</v>
+        <v>0.0004655644444587173</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0.0001627074422359095</v>
       </c>
       <c r="D260">
-        <v>6.781155157491511E-05</v>
+        <v>0.0001356231031498302</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>2.297874119777253E-07</v>
       </c>
       <c r="D261">
-        <v>3.546770726265926E-06</v>
+        <v>7.093541452531852E-06</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -5629,7 +5629,7 @@
         <v>30.18359009741012</v>
       </c>
       <c r="D262">
-        <v>0.6927178996894027</v>
+        <v>1.385435799378805</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>5.894265648572727</v>
       </c>
       <c r="D263">
-        <v>0.1267132110490942</v>
+        <v>0.2534264220981884</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -5669,7 +5669,7 @@
         <v>3.649630911428355</v>
       </c>
       <c r="D264">
-        <v>0.0653162507514464</v>
+        <v>0.1306325015028928</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>2.619418968106245</v>
       </c>
       <c r="D265">
-        <v>0.04120401584787201</v>
+        <v>0.08240803169574402</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>1.951928918564907</v>
       </c>
       <c r="D266">
-        <v>0.03278403569217305</v>
+        <v>0.0655680713843461</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>1.460895400939544</v>
       </c>
       <c r="D267">
-        <v>0.02817404034925725</v>
+        <v>0.0563480806985145</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>1.083684951989546</v>
       </c>
       <c r="D268">
-        <v>0.02393180252414905</v>
+        <v>0.04786360504829809</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>0.7908481695290711</v>
       </c>
       <c r="D269">
-        <v>0.01955227779038503</v>
+        <v>0.03910455558077006</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>0.5645037320412486</v>
       </c>
       <c r="D270">
-        <v>0.01512418004218124</v>
+        <v>0.03024836008436249</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>0.3917991075535145</v>
       </c>
       <c r="D271">
-        <v>0.01082100421807323</v>
+        <v>0.02164200843614646</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -5829,7 +5829,7 @@
         <v>0.2626905996449042</v>
       </c>
       <c r="D272">
-        <v>0.007093727006512178</v>
+        <v>0.01418745401302436</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0.1687892743063238</v>
       </c>
       <c r="D273">
-        <v>0.004382328826849732</v>
+        <v>0.008764657653699465</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>0.102832158134603</v>
       </c>
       <c r="D274">
-        <v>0.002683967844779069</v>
+        <v>0.005367935689558137</v>
       </c>
       <c r="E274">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>0.05849115601813822</v>
       </c>
       <c r="D275">
-        <v>0.001718270778149372</v>
+        <v>0.003436541556298744</v>
       </c>
       <c r="E275">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>0.03034492534773338</v>
       </c>
       <c r="D276">
-        <v>0.001162366879883891</v>
+        <v>0.002324733759767781</v>
       </c>
       <c r="E276">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>0.01381097648279431</v>
       </c>
       <c r="D277">
-        <v>0.0007769639546102447</v>
+        <v>0.001553927909220489</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0.005145465666293147</v>
       </c>
       <c r="D278">
-        <v>0.0004705853998985605</v>
+        <v>0.000941170799797121</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>0.001340877986649908</v>
       </c>
       <c r="D279">
-        <v>0.0002281949663630264</v>
+        <v>0.0004563899327260527</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0.0001581958959478056</v>
       </c>
       <c r="D280">
-        <v>6.617655902837031E-05</v>
+        <v>0.0001323531180567406</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>2.463727578023548E-07</v>
       </c>
       <c r="D281">
-        <v>3.421542852527777E-06</v>
+        <v>6.843085705055553E-06</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -6029,7 +6029,7 @@
         <v>30.34995644484136</v>
       </c>
       <c r="D282">
-        <v>0.6940037618193361</v>
+        <v>1.388007523638672</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>5.90273002161556</v>
       </c>
       <c r="D283">
-        <v>0.1264802525340661</v>
+        <v>0.2529605050681322</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -6069,7 +6069,7 @@
         <v>3.648145472513272</v>
       </c>
       <c r="D284">
-        <v>0.06510034732710215</v>
+        <v>0.1302006946542043</v>
       </c>
       <c r="E284">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>2.614265523336994</v>
       </c>
       <c r="D285">
-        <v>0.04108185051165702</v>
+        <v>0.08216370102331404</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -6109,7 +6109,7 @@
         <v>1.945337347436102</v>
       </c>
       <c r="D286">
-        <v>0.03269049782732909</v>
+        <v>0.06538099565465819</v>
       </c>
       <c r="E286">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>1.45407407508995</v>
       </c>
       <c r="D287">
-        <v>0.02806843729313556</v>
+        <v>0.05613687458627111</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>1.07731490800104</v>
       </c>
       <c r="D288">
-        <v>0.02381118181351749</v>
+        <v>0.04762236362703497</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -6169,7 +6169,7 @@
         <v>0.7852856699442075</v>
       </c>
       <c r="D289">
-        <v>0.01942560112276287</v>
+        <v>0.03885120224552573</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>0.5598970238542125</v>
       </c>
       <c r="D290">
-        <v>0.01500251628814834</v>
+        <v>0.03000503257629669</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0.3881636454318576</v>
       </c>
       <c r="D291">
-        <v>0.01071698886187822</v>
+        <v>0.02143397772375644</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -6229,7 +6229,7 @@
         <v>0.2599569914443078</v>
       </c>
       <c r="D292">
-        <v>0.007016544687354829</v>
+        <v>0.01403308937470966</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0.1668378153172054</v>
       </c>
       <c r="D293">
-        <v>0.004331241361300783</v>
+        <v>0.008662482722601566</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -6269,7 +6269,7 @@
         <v>0.1015188852440349</v>
       </c>
       <c r="D294">
-        <v>0.002652103469617305</v>
+        <v>0.005304206939234609</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>0.05766858293348725</v>
       </c>
       <c r="D295">
-        <v>0.001698073824367142</v>
+        <v>0.003396147648734285</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>0.02987505429829631</v>
       </c>
       <c r="D296">
-        <v>0.00114821719349223</v>
+        <v>0.002296434386984461</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0.01357473117603794</v>
       </c>
       <c r="D297">
-        <v>0.0007665408186036073</v>
+        <v>0.001533081637207215</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>0.005047459172308917</v>
       </c>
       <c r="D298">
-        <v>0.0004633546847711697</v>
+        <v>0.0009267093695423395</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>0.001311956366160016</v>
       </c>
       <c r="D299">
-        <v>0.000224061110086252</v>
+        <v>0.0004481222201725041</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>0.0001541814260653991</v>
       </c>
       <c r="D300">
-        <v>6.470981174303209E-05</v>
+        <v>0.0001294196234860642</v>
       </c>
       <c r="E300">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>2.59464022215497E-07</v>
       </c>
       <c r="D301">
-        <v>3.310021983271002E-06</v>
+        <v>6.620043966542004E-06</v>
       </c>
       <c r="E301">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>30.50444355546146</v>
       </c>
       <c r="D302">
-        <v>0.6951750204424821</v>
+        <v>1.390350040884964</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>5.910465491221172</v>
       </c>
       <c r="D303">
-        <v>0.1262655522139147</v>
+        <v>0.2525311044278294</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -6469,7 +6469,7 @@
         <v>3.646714630653813</v>
       </c>
       <c r="D304">
-        <v>0.06490198586958444</v>
+        <v>0.1298039717391689</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>2.609474755529368</v>
       </c>
       <c r="D305">
-        <v>0.04096983295253777</v>
+        <v>0.08193966590507554</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -6509,7 +6509,7 @@
         <v>1.939241750206684</v>
       </c>
       <c r="D306">
-        <v>0.03260430003698976</v>
+        <v>0.06520860007397952</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>1.447783173756092</v>
       </c>
       <c r="D307">
-        <v>0.02797098843046769</v>
+        <v>0.05594197686093538</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>1.071451419836566</v>
       </c>
       <c r="D308">
-        <v>0.0237000189274049</v>
+        <v>0.04740003785480981</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -6569,7 +6569,7 @@
         <v>0.780173413878958</v>
       </c>
       <c r="D309">
-        <v>0.01930906830733303</v>
+        <v>0.03861813661466607</v>
       </c>
       <c r="E309">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0.5556689298986541</v>
       </c>
       <c r="D310">
-        <v>0.01489082895503762</v>
+        <v>0.02978165791007523</v>
       </c>
       <c r="E310">
         <v>0</v>
@@ -6609,7 +6609,7 @@
         <v>0.3848311339048606</v>
       </c>
       <c r="D311">
-        <v>0.01062171119126223</v>
+        <v>0.02124342238252445</v>
       </c>
       <c r="E311">
         <v>0</v>
@@ -6629,7 +6629,7 @@
         <v>0.2574541781995616</v>
       </c>
       <c r="D312">
-        <v>0.006945973546816703</v>
+        <v>0.01389194709363341</v>
       </c>
       <c r="E312">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0.1650532159066036</v>
       </c>
       <c r="D313">
-        <v>0.004284588090405593</v>
+        <v>0.008569176180811187</v>
       </c>
       <c r="E313">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>0.1003193398752283</v>
       </c>
       <c r="D314">
-        <v>0.002623021990102746</v>
+        <v>0.005246043980205491</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         <v>0.05691817918333672</v>
       </c>
       <c r="D315">
-        <v>0.001679633628397157</v>
+        <v>0.003359267256794315</v>
       </c>
       <c r="E315">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0.02944698669268206</v>
       </c>
       <c r="D316">
-        <v>0.001135294260056621</v>
+        <v>0.002270588520113241</v>
       </c>
       <c r="E316">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0.0133598323746237</v>
       </c>
       <c r="D317">
-        <v>0.0007570296532522784</v>
+        <v>0.001514059306504557</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0.004958470968738935</v>
       </c>
       <c r="D318">
-        <v>0.00045676927116782</v>
+        <v>0.00091353854233564</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>0.001285758408089894</v>
       </c>
       <c r="D319">
-        <v>0.0002203069990912565</v>
+        <v>0.0004406139981825129</v>
       </c>
       <c r="E319">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0.000150558070872535</v>
       </c>
       <c r="D320">
-        <v>6.338331124914657E-05</v>
+        <v>0.0001267666224982931</v>
       </c>
       <c r="E320">
         <v>0</v>
@@ -6809,7 +6809,7 @@
         <v>2.707960418640472E-07</v>
       </c>
       <c r="D321">
-        <v>3.20986751775576E-06</v>
+        <v>6.41973503551152E-06</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -6829,7 +6829,7 @@
         <v>30.64939577016271</v>
       </c>
       <c r="D322">
-        <v>0.6962485944208624</v>
+        <v>1.392497188841725</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>5.917629235270406</v>
       </c>
       <c r="D323">
-        <v>0.1260665937724938</v>
+        <v>0.2521331875449876</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -6869,7 +6869,7 @@
         <v>3.645353680738565</v>
       </c>
       <c r="D324">
-        <v>0.0647187045115343</v>
+        <v>0.1294374090230686</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>2.605007869243438</v>
       </c>
       <c r="D325">
-        <v>0.04086650949713412</v>
+        <v>0.08173301899426824</v>
       </c>
       <c r="E325">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>1.933578403607592</v>
       </c>
       <c r="D326">
-        <v>0.03252442635542138</v>
+        <v>0.06504885271084275</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>1.44195004788033</v>
       </c>
       <c r="D327">
-        <v>0.02788057921353144</v>
+        <v>0.05576115842706288</v>
       </c>
       <c r="E327">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>1.066022499645567</v>
       </c>
       <c r="D328">
-        <v>0.0235970150677983</v>
+        <v>0.04719403013559661</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -6969,7 +6969,7 @@
         <v>0.7754456701553915</v>
       </c>
       <c r="D329">
-        <v>0.01920127123049577</v>
+        <v>0.03840254246099153</v>
       </c>
       <c r="E329">
         <v>0</v>
@@ -6989,7 +6989,7 @@
         <v>0.5517629129300704</v>
       </c>
       <c r="D330">
-        <v>0.01478771287292577</v>
+        <v>0.02957542574585155</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>0.3817553883946837</v>
       </c>
       <c r="D331">
-        <v>0.01053392242346764</v>
+        <v>0.02106784484693528</v>
       </c>
       <c r="E331">
         <v>0</v>
@@ -7029,7 +7029,7 @@
         <v>0.2551462657739448</v>
       </c>
       <c r="D332">
-        <v>0.006881058137064733</v>
+        <v>0.01376211627412947</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0.1634089920441172</v>
       </c>
       <c r="D333">
-        <v>0.004241723439342969</v>
+        <v>0.008483446878685939</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>0.09921508877748497</v>
       </c>
       <c r="D334">
-        <v>0.002596316589780125</v>
+        <v>0.005192633179560251</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -7089,7 +7089,7 @@
         <v>0.05622797759138612</v>
       </c>
       <c r="D335">
-        <v>0.001662693662538415</v>
+        <v>0.00332538732507683</v>
       </c>
       <c r="E335">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0.02905361737028831</v>
       </c>
       <c r="D336">
-        <v>0.001123419521883873</v>
+        <v>0.002246839043767746</v>
       </c>
       <c r="E336">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>0.01316254944528696</v>
       </c>
       <c r="D337">
-        <v>0.0007482971165359067</v>
+        <v>0.001496594233071813</v>
       </c>
       <c r="E337">
         <v>0</v>
@@ -7149,7 +7149,7 @@
         <v>0.0048768735696797</v>
       </c>
       <c r="D338">
-        <v>0.0004507336104909189</v>
+        <v>0.0009014672209818378</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>0.001261772654890989</v>
       </c>
       <c r="D339">
-        <v>0.0002168754501729172</v>
+        <v>0.0004337509003458345</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0.000147248530211263</v>
       </c>
       <c r="D340">
-        <v>6.217545393404556E-05</v>
+        <v>0.0001243509078680911</v>
       </c>
       <c r="E340">
         <v>0</v>
@@ -7209,7 +7209,7 @@
         <v>2.815207484046237E-07</v>
       </c>
       <c r="D341">
-        <v>3.11940076319572E-06</v>
+        <v>6.238801526391439E-06</v>
       </c>
       <c r="E341">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>30.78646602663024</v>
       </c>
       <c r="D342">
-        <v>0.6972380239476287</v>
+        <v>1.394476047895257</v>
       </c>
       <c r="E342">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>5.924331283399178</v>
       </c>
       <c r="D343">
-        <v>0.1258813409948767</v>
+        <v>0.2517626819897534</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -7269,7 +7269,7 @@
         <v>3.644068558004815</v>
       </c>
       <c r="D344">
-        <v>0.06454851875417067</v>
+        <v>0.1290970375083413</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -7289,7 +7289,7 @@
         <v>2.600830407894379</v>
       </c>
       <c r="D345">
-        <v>0.04077071102243228</v>
+        <v>0.08154142204486456</v>
       </c>
       <c r="E345">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>1.928294446607833</v>
       </c>
       <c r="D346">
-        <v>0.0324500553466515</v>
+        <v>0.06490011069330301</v>
       </c>
       <c r="E346">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>1.43651569546343</v>
       </c>
       <c r="D347">
-        <v>0.02779630621484399</v>
+        <v>0.05559261242968799</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>1.060970352012556</v>
       </c>
       <c r="D348">
-        <v>0.02350111863226572</v>
+        <v>0.04700223726453144</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -7369,7 +7369,7 @@
         <v>0.771050092691177</v>
       </c>
       <c r="D349">
-        <v>0.01910107228369856</v>
+        <v>0.03820214456739712</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0.548134246035785</v>
       </c>
       <c r="D350">
-        <v>0.01469203526846571</v>
+        <v>0.02938407053693142</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>0.3789000923356501</v>
       </c>
       <c r="D351">
-        <v>0.01045261834676607</v>
+        <v>0.02090523669353213</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>0.2530051922174829</v>
       </c>
       <c r="D352">
-        <v>0.006821031733471636</v>
+        <v>0.01364206346694327</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.1618845603381789</v>
       </c>
       <c r="D353">
-        <v>0.004202130084485174</v>
+        <v>0.008404260168970348</v>
       </c>
       <c r="E353">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0.09819189245610002</v>
       </c>
       <c r="D354">
-        <v>0.002571661531947514</v>
+        <v>0.005143323063895028</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -7489,7 +7489,7 @@
         <v>0.0555887945331055</v>
       </c>
       <c r="D355">
-        <v>0.001647048487920241</v>
+        <v>0.003294096975840482</v>
       </c>
       <c r="E355">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0.02868953245371285</v>
       </c>
       <c r="D356">
-        <v>0.001112449910512868</v>
+        <v>0.002224899821025736</v>
       </c>
       <c r="E356">
         <v>0</v>
@@ -7529,7 +7529,7 @@
         <v>0.01298006229266253</v>
       </c>
       <c r="D357">
-        <v>0.0007402364611954779</v>
+        <v>0.001480472922390956</v>
       </c>
       <c r="E357">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0.004801447781738591</v>
       </c>
       <c r="D358">
-        <v>0.0004451713723644883</v>
+        <v>0.0008903427447289766</v>
       </c>
       <c r="E358">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>0.001239620161205292</v>
       </c>
       <c r="D359">
-        <v>0.0002137209098062706</v>
+        <v>0.0004274418196125411</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>0.000144196356478278</v>
       </c>
       <c r="D360">
-        <v>6.106910680750672E-05</v>
+        <v>0.0001221382136150134</v>
       </c>
       <c r="E360">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>2.923085919837865E-07</v>
       </c>
       <c r="D361">
-        <v>3.037297256738249E-06</v>
+        <v>6.074594513476498E-06</v>
       </c>
       <c r="E361">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>30.91678474056074</v>
       </c>
       <c r="D362">
-        <v>0.6981543446242596</v>
+        <v>1.396308689248519</v>
       </c>
       <c r="E362">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>5.930646397792816</v>
       </c>
       <c r="D363">
-        <v>0.1257081168693638</v>
+        <v>0.2514162337387277</v>
       </c>
       <c r="E363">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>3.642858466007327</v>
       </c>
       <c r="D364">
-        <v>0.06438979834956789</v>
+        <v>0.1287795966991358</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>2.596911493098767</v>
       </c>
       <c r="D365">
-        <v>0.04068148275561163</v>
+        <v>0.08136296551122325</v>
       </c>
       <c r="E365">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>1.923345482658489</v>
       </c>
       <c r="D366">
-        <v>0.03238051135998343</v>
+        <v>0.06476102271996685</v>
       </c>
       <c r="E366">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>1.431431633961103</v>
       </c>
       <c r="D367">
-        <v>0.02771742522679546</v>
+        <v>0.05543485045359092</v>
       </c>
       <c r="E367">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>1.05624806385014</v>
       </c>
       <c r="D368">
-        <v>0.02341146220473339</v>
+        <v>0.04682292440946677</v>
       </c>
       <c r="E368">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>0.7669445634312378</v>
       </c>
       <c r="D369">
-        <v>0.01900753393019617</v>
+        <v>0.03801506786039235</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0.5447472074594173</v>
       </c>
       <c r="D370">
-        <v>0.01460286507858982</v>
+        <v>0.02920573015717964</v>
       </c>
       <c r="E370">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>0.3762364386009625</v>
       </c>
       <c r="D371">
-        <v>0.01037697546369638</v>
+        <v>0.02075395092739275</v>
       </c>
       <c r="E371">
         <v>0</v>
@@ -7829,7 +7829,7 @@
         <v>0.2510088465271629</v>
       </c>
       <c r="D372">
-        <v>0.00676526640959906</v>
+        <v>0.01353053281919812</v>
       </c>
       <c r="E372">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>0.1604638150694006</v>
       </c>
       <c r="D373">
-        <v>0.00416538471622978</v>
+        <v>0.00833076943245956</v>
       </c>
       <c r="E373">
         <v>0</v>
@@ -7869,7 +7869,7 @@
         <v>0.09723868955108544</v>
       </c>
       <c r="D374">
-        <v>0.002548790411512754</v>
+        <v>0.005097580823025507</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -7889,7 +7889,7 @@
         <v>0.05499355327774649</v>
       </c>
       <c r="D375">
-        <v>0.00163253016054545</v>
+        <v>0.0032650603210909</v>
       </c>
       <c r="E375">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0.02835059651576942</v>
       </c>
       <c r="D376">
-        <v>0.00110226835215059</v>
+        <v>0.002204536704301179</v>
       </c>
       <c r="E376">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>0.01281023802002918</v>
       </c>
       <c r="D377">
-        <v>0.0007327603710051773</v>
+        <v>0.001465520742010355</v>
       </c>
       <c r="E377">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>0.004731281908600187</v>
       </c>
       <c r="D378">
-        <v>0.0004400203023313543</v>
+        <v>0.0008800406046627087</v>
       </c>
       <c r="E378">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>0.001219021456507707</v>
       </c>
       <c r="D379">
-        <v>0.0002108063002216476</v>
+        <v>0.0004216126004432952</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0.0001413605812670274</v>
       </c>
       <c r="D380">
-        <v>6.005036585807033E-05</v>
+        <v>0.0001201007317161407</v>
       </c>
       <c r="E380">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>3.034405446727706E-07</v>
       </c>
       <c r="D381">
-        <v>2.962421074118549E-06</v>
+        <v>5.924842148237098E-06</v>
       </c>
       <c r="E381">
         <v>0</v>
@@ -8029,7 +8029,7 @@
         <v>31.04108246793986</v>
       </c>
       <c r="D382">
-        <v>0.699006592341371</v>
+        <v>1.398013184682742</v>
       </c>
       <c r="E382">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>5.936622385657191</v>
       </c>
       <c r="D383">
-        <v>0.1255455253748826</v>
+        <v>0.2510910507497651</v>
       </c>
       <c r="E383">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>3.641717642690909</v>
       </c>
       <c r="D384">
-        <v>0.06424119108085867</v>
+        <v>0.1284823821617173</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>2.593223254884322</v>
       </c>
       <c r="D385">
-        <v>0.0405980371713491</v>
+        <v>0.0811960743426982</v>
       </c>
       <c r="E385">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>1.918693893582707</v>
       </c>
       <c r="D386">
-        <v>0.03231523286595158</v>
+        <v>0.06463046573190316</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -8129,7 +8129,7 @@
         <v>1.426657725544448</v>
       </c>
       <c r="D387">
-        <v>0.02764331752619313</v>
+        <v>0.05528663505238627</v>
       </c>
       <c r="E387">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>1.051817316131886</v>
       </c>
       <c r="D388">
-        <v>0.02332732395003256</v>
+        <v>0.04665464790006511</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>0.7630950181919089</v>
       </c>
       <c r="D389">
-        <v>0.01891987687882977</v>
+        <v>0.03783975375765954</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>0.541573150421347</v>
       </c>
       <c r="D390">
-        <v>0.01451943075226103</v>
+        <v>0.02903886150452207</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>0.3737415083709609</v>
       </c>
       <c r="D391">
-        <v>0.01030631307375409</v>
+        <v>0.02061262614750817</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -8229,7 +8229,7 @@
         <v>0.2491397755856662</v>
       </c>
       <c r="D392">
-        <v>0.006713243817746645</v>
+        <v>0.01342648763549329</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>0.1591341491033373</v>
       </c>
       <c r="D393">
-        <v>0.004131138184148044</v>
+        <v>0.008262276368296087</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -8269,7 +8269,7 @@
         <v>0.09634689760880683</v>
       </c>
       <c r="D394">
-        <v>0.002527483589820092</v>
+        <v>0.005054967179640184</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0.05443681748843994</v>
       </c>
       <c r="D395">
-        <v>0.001619000291210521</v>
+        <v>0.003238000582421042</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0.02803366767315761</v>
       </c>
       <c r="D396">
-        <v>0.001092778279099994</v>
+        <v>0.002185556558199988</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>0.01265147673781134</v>
       </c>
       <c r="D397">
-        <v>0.0007257968623077093</v>
+        <v>0.001451593724615419</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -8349,7 +8349,7 @@
         <v>0.004665702252786278</v>
       </c>
       <c r="D398">
-        <v>0.0004352292473627832</v>
+        <v>0.0008704584947255663</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -8369,7 +8369,7 @@
         <v>0.001199773876349817</v>
       </c>
       <c r="D399">
-        <v>0.000208101222936295</v>
+        <v>0.0004162024458725899</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -8389,7 +8389,7 @@
         <v>0.000138712152061032</v>
       </c>
       <c r="D400">
-        <v>5.910786798734137E-05</v>
+        <v>0.0001182157359746827</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -8409,7 +8409,7 @@
         <v>3.149046176723238E-07</v>
       </c>
       <c r="D401">
-        <v>2.893785473709957E-06</v>
+        <v>5.787570947419915E-06</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -8429,7 +8429,7 @@
         <v>31.15978910182281</v>
       </c>
       <c r="D402">
-        <v>0.6998022050557896</v>
+        <v>1.399604410111579</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>5.94228680047676</v>
       </c>
       <c r="D403">
-        <v>0.1253923936406097</v>
+        <v>0.2507847872812194</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>3.640636824071547</v>
       </c>
       <c r="D404">
-        <v>0.06410156557439556</v>
+        <v>0.1282031311487911</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -8489,7 +8489,7 @@
         <v>2.589740440294444</v>
       </c>
       <c r="D405">
-        <v>0.04051971856544341</v>
+        <v>0.08103943713088682</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>1.914307559912206</v>
       </c>
       <c r="D406">
-        <v>0.03225374890399463</v>
+        <v>0.06450749780798926</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>1.422160504647064</v>
       </c>
       <c r="D407">
-        <v>0.02757346432538992</v>
+        <v>0.05514692865077984</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>1.047646614150311</v>
       </c>
       <c r="D408">
-        <v>0.02324809841598569</v>
+        <v>0.04649619683197138</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0.75947375937058</v>
       </c>
       <c r="D409">
-        <v>0.01883744842416935</v>
+        <v>0.0376748968483387</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0.5385890007870746</v>
       </c>
       <c r="D410">
-        <v>0.0144410881246911</v>
+        <v>0.02888217624938219</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>0.3713970064286434</v>
       </c>
       <c r="D411">
-        <v>0.01024006435702847</v>
+        <v>0.02048012871405693</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -8629,7 +8629,7 @@
         <v>0.2473841731810911</v>
       </c>
       <c r="D412">
-        <v>0.006664532943305478</v>
+        <v>0.01332906588661096</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>0.1578856866756683</v>
       </c>
       <c r="D413">
-        <v>0.004099100402534007</v>
+        <v>0.008198200805068013</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>0.09550986402143594</v>
       </c>
       <c r="D414">
-        <v>0.002507558661841404</v>
+        <v>0.005015117323682808</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0.05391442408607656</v>
       </c>
       <c r="D415">
-        <v>0.001606344006613518</v>
+        <v>0.003212688013227036</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -8709,7 +8709,7 @@
         <v>0.02773637285291011</v>
       </c>
       <c r="D416">
-        <v>0.001083899459809846</v>
+        <v>0.002167798919619691</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -8729,7 +8729,7 @@
         <v>0.01250258965665082</v>
       </c>
       <c r="D417">
-        <v>0.0007192861688622245</v>
+        <v>0.001438572337724449</v>
       </c>
       <c r="E417">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>0.004604218041675056</v>
       </c>
       <c r="D418">
-        <v>0.0004307558790100976</v>
+        <v>0.0008615117580201952</v>
       </c>
       <c r="E418">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0.001181733559318962</v>
       </c>
       <c r="D419">
-        <v>0.0002055805862916519</v>
+        <v>0.0004111611725833038</v>
       </c>
       <c r="E419">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0.0001362311091791357</v>
       </c>
       <c r="D420">
-        <v>5.823226600515743E-05</v>
+        <v>0.0001164645320103149</v>
       </c>
       <c r="E420">
         <v>0</v>
@@ -8809,7 +8809,7 @@
         <v>3.264799987840233E-07</v>
       </c>
       <c r="D421">
-        <v>2.8305316744193E-06</v>
+        <v>5.6610633488386E-06</v>
       </c>
       <c r="E421">
         <v>0</v>
@@ -8829,7 +8829,7 @@
         <v>31.27319075194865</v>
       </c>
       <c r="D422">
-        <v>0.7005474401261863</v>
+        <v>1.401094880252373</v>
       </c>
       <c r="E422">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>5.947657404965641</v>
       </c>
       <c r="D423">
-        <v>0.125247728612523</v>
+        <v>0.2504954572250459</v>
       </c>
       <c r="E423">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>3.639606087428579</v>
       </c>
       <c r="D424">
-        <v>0.06396996469591075</v>
+        <v>0.1279399293918215</v>
       </c>
       <c r="E424">
         <v>0</v>
@@ -8889,7 +8889,7 @@
         <v>2.586440705733845</v>
       </c>
       <c r="D425">
-        <v>0.04044597401659859</v>
+        <v>0.08089194803319717</v>
       </c>
       <c r="E425">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>1.910158912791947</v>
       </c>
       <c r="D426">
-        <v>0.03219566088345049</v>
+        <v>0.06439132176690099</v>
       </c>
       <c r="E426">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>1.417911622311755</v>
       </c>
       <c r="D427">
-        <v>0.02750742552482822</v>
+        <v>0.05501485104965644</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>1.043709497189223</v>
       </c>
       <c r="D428">
-        <v>0.02317327223539121</v>
+        <v>0.04634654447078242</v>
       </c>
       <c r="E428">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>0.756057663854569</v>
       </c>
       <c r="D429">
-        <v>0.01875969576052315</v>
+        <v>0.0375193915210463</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -8989,7 +8989,7 @@
         <v>0.5357756027782241</v>
       </c>
       <c r="D430">
-        <v>0.01436729258344598</v>
+        <v>0.02873458516689197</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0.3691878267599564</v>
       </c>
       <c r="D431">
-        <v>0.0101777510001226</v>
+        <v>0.0203555020002452</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0.2457307027345216</v>
       </c>
       <c r="D432">
-        <v>0.006618770606061242</v>
+        <v>0.01323754121212248</v>
       </c>
       <c r="E432">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0.1567103671180032</v>
       </c>
       <c r="D433">
-        <v>0.004069027146199921</v>
+        <v>0.008138054292399843</v>
       </c>
       <c r="E433">
         <v>0</v>
@@ -9069,7 +9069,7 @@
         <v>0.09472219444428853</v>
       </c>
       <c r="D434">
-        <v>0.002488862169419164</v>
+        <v>0.004977724338838327</v>
       </c>
       <c r="E434">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>0.05342302319775658</v>
       </c>
       <c r="D435">
-        <v>0.001594464646957036</v>
+        <v>0.003188929293914072</v>
       </c>
       <c r="E435">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0.02745681940288124</v>
       </c>
       <c r="D436">
-        <v>0.001075564352442408</v>
+        <v>0.002151128704884817</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -9129,7 +9129,7 @@
         <v>0.01236263886324371</v>
       </c>
       <c r="D437">
-        <v>0.0007131780048017577</v>
+        <v>0.001426356009603515</v>
       </c>
       <c r="E437">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>0.004546447277173377</v>
       </c>
       <c r="D438">
-        <v>0.0004265646273903085</v>
+        <v>0.0008531292547806171</v>
       </c>
       <c r="E438">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0.001164790590897523</v>
       </c>
       <c r="D439">
-        <v>0.0002032233635709405</v>
+        <v>0.000406446727141881</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>0.0001339026089466022</v>
       </c>
       <c r="D440">
-        <v>5.74157502130304E-05</v>
+        <v>0.0001148315004260608</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -9209,7 +9209,7 @@
         <v>3.378980413996235E-07</v>
       </c>
       <c r="D441">
-        <v>2.771938849566601E-06</v>
+        <v>5.543877699133201E-06</v>
       </c>
       <c r="E441">
         <v>0</v>
@@ -9229,7 +9229,7 @@
         <v>31.38155029703227</v>
       </c>
       <c r="D442">
-        <v>0.7012476531421561</v>
+        <v>1.402495306284312</v>
       </c>
       <c r="E442">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>5.952750160835069</v>
       </c>
       <c r="D443">
-        <v>0.1251106837576053</v>
+        <v>0.2502213675152107</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -9269,7 +9269,7 @@
         <v>3.638617008812613</v>
       </c>
       <c r="D444">
-        <v>0.06384557129643646</v>
+        <v>0.1276911425928729</v>
       </c>
       <c r="E444">
         <v>0</v>
@@ -9289,7 +9289,7 @@
         <v>2.583304828701292</v>
       </c>
       <c r="D445">
-        <v>0.04037633240268451</v>
+        <v>0.08075266480536902</v>
       </c>
       <c r="E445">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>1.906224205135617</v>
       </c>
       <c r="D446">
-        <v>0.03214062882543708</v>
+        <v>0.06428125765087415</v>
       </c>
       <c r="E446">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>1.413886657733558</v>
       </c>
       <c r="D447">
-        <v>0.02744482418016782</v>
+        <v>0.05488964836033564</v>
       </c>
       <c r="E447">
         <v>0</v>
@@ -9349,7 +9349,7 @@
         <v>1.039983173564989</v>
       </c>
       <c r="D448">
-        <v>0.02310240625356297</v>
+        <v>0.04620481250712594</v>
       </c>
       <c r="E448">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0.7528268178670061</v>
       </c>
       <c r="D449">
-        <v>0.01868614643724338</v>
+        <v>0.03737229287448676</v>
       </c>
       <c r="E449">
         <v>0</v>
@@ -9389,7 +9389,7 @@
         <v>0.5331164600902369</v>
       </c>
       <c r="D450">
-        <v>0.01429757902503742</v>
+        <v>0.02859515805007484</v>
       </c>
       <c r="E450">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0.3671009611266025</v>
       </c>
       <c r="D451">
-        <v>0.01011896507208433</v>
+        <v>0.02023793014416865</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>0.2441696015558869</v>
       </c>
       <c r="D452">
-        <v>0.006575647537986288</v>
+        <v>0.01315129507597258</v>
       </c>
       <c r="E452">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0.1556012476874586</v>
       </c>
       <c r="D453">
-        <v>0.004040710628910603</v>
+        <v>0.008081421257821205</v>
       </c>
       <c r="E453">
         <v>0</v>
@@ -9469,7 +9469,7 @@
         <v>0.09397924165610297</v>
       </c>
       <c r="D454">
-        <v>0.002471263667603452</v>
+        <v>0.004942527335206904</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0.05295972793469308</v>
       </c>
       <c r="D455">
-        <v>0.001583279987944463</v>
+        <v>0.003166559975888925</v>
       </c>
       <c r="E455">
         <v>0</v>
@@ -9509,7 +9509,7 @@
         <v>0.02719337553544981</v>
       </c>
       <c r="D456">
-        <v>0.001067715496247915</v>
+        <v>0.00213543099249583</v>
       </c>
       <c r="E456">
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>0.01223081533453092</v>
       </c>
       <c r="D457">
-        <v>0.0007074296103110329</v>
+        <v>0.001414859220622066</v>
       </c>
       <c r="E457">
         <v>0</v>
@@ -9549,7 +9549,7 @@
         <v>0.004492060291912418</v>
       </c>
       <c r="D458">
-        <v>0.000422625235732282</v>
+        <v>0.000845250471464564</v>
       </c>
       <c r="E458">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0.001148850083983472</v>
       </c>
       <c r="D459">
-        <v>0.0002010117235389439</v>
+        <v>0.0004020234470778878</v>
       </c>
       <c r="E459">
         <v>0</v>
@@ -9589,7 +9589,7 @@
         <v>0.0001317138759749645</v>
       </c>
       <c r="D460">
-        <v>5.665171542101481E-05</v>
+        <v>0.0001133034308420296</v>
       </c>
       <c r="E460">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>3.489569271768506E-07</v>
       </c>
       <c r="D461">
-        <v>2.7174186117913E-06</v>
+        <v>5.434837223582599E-06</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>31.48511879015171</v>
       </c>
       <c r="D462">
-        <v>0.7019074461169093</v>
+        <v>1.403814892233819</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>5.957580042498006</v>
       </c>
       <c r="D463">
-        <v>0.1249805328613136</v>
+        <v>0.2499610657226272</v>
       </c>
       <c r="E463">
         <v>0</v>
@@ -9669,7 +9669,7 @@
         <v>3.637662584467428</v>
       </c>
       <c r="D464">
-        <v>0.06372768355564928</v>
+        <v>0.1274553671112986</v>
       </c>
       <c r="E464">
         <v>0</v>
@@ -9689,7 +9689,7 @@
         <v>2.580316249066323</v>
       </c>
       <c r="D465">
-        <v>0.04031038964417934</v>
+        <v>0.08062077928835867</v>
       </c>
       <c r="E465">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>1.902482880928397</v>
       </c>
       <c r="D466">
-        <v>0.03208836090746296</v>
+        <v>0.06417672181492592</v>
       </c>
       <c r="E466">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>1.41006443878855</v>
       </c>
       <c r="D467">
-        <v>0.0273853355237102</v>
+        <v>0.0547706710474204</v>
       </c>
       <c r="E467">
         <v>0</v>
@@ -9749,7 +9749,7 @@
         <v>1.036447867687996</v>
       </c>
       <c r="D468">
-        <v>0.02303512277211194</v>
+        <v>0.04607024554422387</v>
       </c>
       <c r="E468">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0.7497639334538455</v>
       </c>
       <c r="D469">
-        <v>0.01861639459063977</v>
+        <v>0.03723278918127954</v>
       </c>
       <c r="E469">
         <v>0</v>
@@ -9789,7 +9789,7 @@
         <v>0.5305972432418072</v>
       </c>
       <c r="D470">
-        <v>0.01423154822436644</v>
+        <v>0.02846309644873287</v>
       </c>
       <c r="E470">
         <v>0</v>
@@ -9809,7 +9809,7 @@
         <v>0.3651251033860585</v>
       </c>
       <c r="D471">
-        <v>0.01006335692281772</v>
+        <v>0.02012671384563543</v>
       </c>
       <c r="E471">
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>0.2426923784880934</v>
       </c>
       <c r="D472">
-        <v>0.006534899083036267</v>
+        <v>0.01306979816607253</v>
       </c>
       <c r="E472">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0.1545522844928662</v>
       </c>
       <c r="D473">
-        <v>0.00401397319966634</v>
+        <v>0.008027946399332681</v>
       </c>
       <c r="E473">
         <v>0</v>
@@ -9869,7 +9869,7 @@
         <v>0.09327695594727878</v>
       </c>
       <c r="D474">
-        <v>0.002454651730713664</v>
+        <v>0.004909303461427327</v>
       </c>
       <c r="E474">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0.05252201932201861</v>
       </c>
       <c r="D475">
-        <v>0.001572719735254698</v>
+        <v>0.003145439470509397</v>
       </c>
       <c r="E475">
         <v>0</v>
@@ -9909,7 +9909,7 @@
         <v>0.02694461520159798</v>
       </c>
       <c r="D476">
-        <v>0.001060303767656528</v>
+        <v>0.002120607535313056</v>
       </c>
       <c r="E476">
         <v>0</v>
@@ -9929,7 +9929,7 @@
         <v>0.01210641075063417</v>
       </c>
       <c r="D477">
-        <v>0.0007020044515077539</v>
+        <v>0.001404008903015508</v>
       </c>
       <c r="E477">
         <v>0</v>
@@ -9949,7 +9949,7 @@
         <v>0.00444076781779622</v>
       </c>
       <c r="D478">
-        <v>0.0004189118420499863</v>
+        <v>0.0008378236840999727</v>
       </c>
       <c r="E478">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0.001133828559722095</v>
       </c>
       <c r="D479">
-        <v>0.0001989304757889154</v>
+        <v>0.0003978609515778308</v>
       </c>
       <c r="E479">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>0.0001296536697035071</v>
       </c>
       <c r="D480">
-        <v>5.593455092267115E-05</v>
+        <v>0.0001118691018453423</v>
       </c>
       <c r="E480">
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>3.595177144005864E-07</v>
       </c>
       <c r="D481">
-        <v>2.666492325882996E-06</v>
+        <v>5.332984651765991E-06</v>
       </c>
       <c r="E481">
         <v>0</v>
@@ -10029,7 +10029,7 @@
         <v>31.58413610540671</v>
       </c>
       <c r="D482">
-        <v>0.7025307837956343</v>
+        <v>1.405061567591269</v>
       </c>
       <c r="E482">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>5.962161133846282</v>
       </c>
       <c r="D483">
-        <v>0.1248566493177729</v>
+        <v>0.2497132986355458</v>
       </c>
       <c r="E483">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>3.636736987735575</v>
       </c>
       <c r="D484">
-        <v>0.06361569551862666</v>
+        <v>0.1272313910372533</v>
       </c>
       <c r="E484">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>2.57746063786475</v>
       </c>
       <c r="D485">
-        <v>0.04024779712419621</v>
+        <v>0.08049559424839242</v>
       </c>
       <c r="E485">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>1.898917063446533</v>
       </c>
       <c r="D486">
-        <v>0.03203860521291048</v>
+        <v>0.06407721042582096</v>
       </c>
       <c r="E486">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>1.406426522764236</v>
       </c>
       <c r="D487">
-        <v>0.02732867829003786</v>
+        <v>0.05465735658007573</v>
       </c>
       <c r="E487">
         <v>0</v>
@@ -10149,7 +10149,7 @@
         <v>1.033086338821668</v>
       </c>
       <c r="D488">
-        <v>0.02297109543564271</v>
+        <v>0.04594219087128543</v>
       </c>
       <c r="E488">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0.7468539300224767</v>
       </c>
       <c r="D489">
-        <v>0.01855009002770489</v>
+        <v>0.03710018005540977</v>
       </c>
       <c r="E489">
         <v>0</v>
@@ -10189,7 +10189,7 @@
         <v>0.5282054447151385</v>
       </c>
       <c r="D490">
-        <v>0.01416885604705556</v>
+        <v>0.02833771209411112</v>
       </c>
       <c r="E490">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0.3632503789522458</v>
       </c>
       <c r="D491">
-        <v>0.01001062561930042</v>
+        <v>0.02002125123860085</v>
       </c>
       <c r="E491">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0.2412916121251042</v>
       </c>
       <c r="D492">
-        <v>0.006496297849787976</v>
+        <v>0.01299259569957595</v>
       </c>
       <c r="E492">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0.1535581901506003</v>
       </c>
       <c r="D493">
-        <v>0.003988662363648359</v>
+        <v>0.007977324727296719</v>
       </c>
       <c r="E493">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0.09261179072550232</v>
       </c>
       <c r="D494">
-        <v>0.00243893079880798</v>
+        <v>0.004877861597615961</v>
       </c>
       <c r="E494">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>0.05210768835752431</v>
       </c>
       <c r="D495">
-        <v>0.001562723548649857</v>
+        <v>0.003125447097299713</v>
       </c>
       <c r="E495">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0.02670928581454586</v>
       </c>
       <c r="D496">
-        <v>0.001053287003460502</v>
+        <v>0.002106574006921003</v>
       </c>
       <c r="E496">
         <v>0</v>
@@ -10329,7 +10329,7 @@
         <v>0.01198880177016531</v>
       </c>
       <c r="D497">
-        <v>0.0006968711939016205</v>
+        <v>0.001393742387803241</v>
       </c>
       <c r="E497">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0.004392314714214279</v>
       </c>
       <c r="D498">
-        <v>0.0004154022560992733</v>
+        <v>0.0008308045121985467</v>
       </c>
       <c r="E498">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0.001119652189242354</v>
       </c>
       <c r="D499">
-        <v>0.0001969666340352115</v>
+        <v>0.0003939332680704229</v>
       </c>
       <c r="E499">
         <v>0</v>
@@ -10389,7 +10389,7 @@
         <v>0.0001277120479127857</v>
       </c>
       <c r="D500">
-        <v>5.525947530544386E-05</v>
+        <v>0.0001105189506108877</v>
       </c>
       <c r="E500">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>3.694923507365225E-07</v>
       </c>
       <c r="D501">
-        <v>2.618771974402813E-06</v>
+        <v>5.237543948805626E-06</v>
       </c>
       <c r="E501">
         <v>0</v>
